--- a/Map2.xlsx
+++ b/Map2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdul\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdul\Desktop\Balck Jack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Het spel" sheetId="1" r:id="rId1"/>
@@ -4108,7 +4108,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Map2.xlsx
+++ b/Map2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="271">
   <si>
     <t>Attribute :</t>
   </si>
@@ -903,6 +903,12 @@
   </si>
   <si>
     <t>enumeratie van de waade van de kaarten.</t>
+  </si>
+  <si>
+    <t>Een plek aan een tafel</t>
+  </si>
+  <si>
+    <t>waar de dealer zit.</t>
   </si>
 </sst>
 </file>
@@ -4105,10 +4111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4219,60 +4225,63 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>141</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C23" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>143</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4280,153 +4289,166 @@
         <v>146</v>
       </c>
       <c r="C25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>148</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>9</v>
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" t="s">
-        <v>151</v>
+      <c r="A32" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>159</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C37" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>154</v>
-      </c>
-      <c r="B40" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="5"/>
+      <c r="C44" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>164</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B49" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>220</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B51" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4440,8 +4462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Map2.xlsx
+++ b/Map2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="272">
   <si>
     <t>Attribute :</t>
   </si>
@@ -909,6 +909,9 @@
   </si>
   <si>
     <t>waar de dealer zit.</t>
+  </si>
+  <si>
+    <t>Punten</t>
   </si>
 </sst>
 </file>
@@ -4111,10 +4114,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4380,75 +4383,80 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>154</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>155</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>131</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>189</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>152</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>164</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>220</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>221</v>
       </c>
     </row>

--- a/Map2.xlsx
+++ b/Map2.xlsx
@@ -4116,8 +4116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
